--- a/Appendix/有清以来诸家音韵分撮比观表.xlsx
+++ b/Appendix/有清以来诸家音韵分撮比观表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\A书籍\文学\国内文学\文选\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\A书籍\语言学习\汉语言\shuowen\Appendix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79384C4F-9F92-495C-AB40-334C57483D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6048DEB-D83C-4D4A-840A-D071F5A8363B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="159">
   <si>
     <t>顾炎武</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -905,6 +905,394 @@
   </si>
   <si>
     <r>
+      <t>歌部（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ai</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>元部（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>真部（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>文部（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ǝn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>阳部（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>耕部（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>东部（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>冬部（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>侵部（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ǝm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>辑部（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ǝp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>谈部（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>am</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>盍部（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>幽部（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>蒸部（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ǝ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>月部（</t>
     </r>
     <r>
@@ -926,392 +1314,14 @@
       </rPr>
       <t>）</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>歌部（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ai</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>元部（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>an</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>真部（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>en</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>文部（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ǝn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>阳部（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ŋ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>耕部（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ŋ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>蒸部（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ǝ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ŋ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>东部（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ŋ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>冬部（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ŋ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>侵部（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ǝm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>辑部（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ǝp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>谈部（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>am</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>盍部（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ap</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>幽部（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王力对段氏十七部的修改意见：
+1、从三部入声字中分出一部分（屋部），归入四部，以配阴声韵（侯部）；
+2、将十二部入声字（质部）归入十五部入声字，以配阴声韵（脂部）；
+3、九部字内部也应该裂化为两部分（东、冬）；
+4、十五部入声字应裂化为三部分。即质配脂、物配微，月部独立。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1319,7 +1329,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1376,6 +1386,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1397,7 +1415,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1420,29 +1438,270 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1724,11 +1983,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG11"/>
+  <dimension ref="A1:AG17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G15" sqref="G15"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N8" sqref="N8:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1764,60 +2023,60 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="3" t="s">
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="3" t="s">
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2" t="s">
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="3" t="s">
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1825,169 +2084,169 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="21"/>
+      <c r="J2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
+      <c r="K2" s="21"/>
+      <c r="L2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="3" t="s">
+      <c r="M2" s="21"/>
+      <c r="N2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="3" t="s">
+      <c r="P2" s="21"/>
+      <c r="Q2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="3" t="s">
+      <c r="S2" s="21"/>
+      <c r="T2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AA2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2" t="s">
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="3" t="s">
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="3" t="s">
+      <c r="O3" s="22"/>
+      <c r="P3" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="3" t="s">
+      <c r="R3" s="22"/>
+      <c r="S3" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="V3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="2"/>
-      <c r="X3" s="3" t="s">
+      <c r="W3" s="21"/>
+      <c r="X3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Y3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="Z3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AA3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="3" t="s">
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AD3" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AE3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AF3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AG3" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1995,78 +2254,78 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="23"/>
+      <c r="F4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5" t="s">
+      <c r="G4" s="24"/>
+      <c r="H4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4" t="s">
+      <c r="K4" s="23"/>
+      <c r="L4" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4" t="s">
+      <c r="M4" s="24"/>
+      <c r="N4" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="5" t="s">
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="S4" s="4"/>
-      <c r="T4" s="5" t="s">
+      <c r="S4" s="28"/>
+      <c r="T4" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="V4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="W4" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="W4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="X4" s="5" t="s">
+      <c r="X4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="Y4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="Z4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AA4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4" t="s">
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4" t="s">
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="5" t="s">
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2074,94 +2333,94 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="3" t="s">
+      <c r="O5" s="21"/>
+      <c r="P5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S5" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="T5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="U5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="V5" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="W5" s="2"/>
-      <c r="X5" s="3" t="s">
+      <c r="W5" s="21"/>
+      <c r="X5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Y5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="Z5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AA5" s="2" t="s">
+      <c r="AA5" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="3" t="s">
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AD5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AE5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AF5" s="3" t="s">
+      <c r="AF5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AG5" s="3" t="s">
+      <c r="AG5" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2169,76 +2428,76 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
+      <c r="G6" s="30"/>
+      <c r="H6" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
+      <c r="I6" s="31"/>
+      <c r="J6" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2" t="s">
+      <c r="K6" s="21"/>
+      <c r="L6" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2" t="s">
+      <c r="M6" s="30"/>
+      <c r="N6" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="3" t="s">
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="U6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="V6" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="W6" s="2"/>
-      <c r="X6" s="3" t="s">
+      <c r="W6" s="21"/>
+      <c r="X6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="Y6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="Z6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AA6" s="3" t="s">
+      <c r="AA6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AB6" s="3" t="s">
+      <c r="AB6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AC6" s="3" t="s">
+      <c r="AC6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AD6" s="3" t="s">
+      <c r="AD6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AE6" s="3" t="s">
+      <c r="AE6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AF6" s="3" t="s">
+      <c r="AF6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AG6" s="3" t="s">
+      <c r="AG6" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2246,80 +2505,80 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="E7" s="21"/>
+      <c r="F7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
+      <c r="G7" s="30"/>
+      <c r="H7" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
+      <c r="I7" s="31"/>
+      <c r="J7" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2" t="s">
+      <c r="K7" s="21"/>
+      <c r="L7" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2" t="s">
+      <c r="M7" s="30"/>
+      <c r="N7" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="3" t="s">
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="3" t="s">
+      <c r="S7" s="31"/>
+      <c r="T7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="U7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="V7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="W7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="X7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="Y7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Z7" s="3" t="s">
+      <c r="Z7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AA7" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="3" t="s">
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AD7" s="3" t="s">
+      <c r="AD7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AE7" s="3" t="s">
+      <c r="AE7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AF7" s="3" t="s">
+      <c r="AF7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AG7" s="3" t="s">
+      <c r="AG7" s="2" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2327,80 +2586,80 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
+      <c r="E8" s="21"/>
+      <c r="F8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
+      <c r="G8" s="30"/>
+      <c r="H8" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
+      <c r="I8" s="31"/>
+      <c r="J8" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2" t="s">
+      <c r="K8" s="21"/>
+      <c r="L8" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2" t="s">
+      <c r="M8" s="30"/>
+      <c r="N8" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2" t="s">
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="S8" s="2"/>
-      <c r="T8" s="3" t="s">
+      <c r="S8" s="31"/>
+      <c r="T8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="U8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="V8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="W8" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="X8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="Y8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Z8" s="3" t="s">
+      <c r="Z8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AA8" s="3" t="s">
+      <c r="AA8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AB8" s="3" t="s">
+      <c r="AB8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AC8" s="3" t="s">
+      <c r="AC8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AD8" s="3" t="s">
+      <c r="AD8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AE8" s="3" t="s">
+      <c r="AE8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AF8" s="3" t="s">
+      <c r="AF8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AG8" s="3" t="s">
+      <c r="AG8" s="2" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2408,84 +2667,84 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
+      <c r="E9" s="21"/>
+      <c r="F9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
+      <c r="G9" s="30"/>
+      <c r="H9" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
+      <c r="I9" s="31"/>
+      <c r="J9" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2" t="s">
+      <c r="K9" s="21"/>
+      <c r="L9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="3" t="s">
+      <c r="M9" s="30"/>
+      <c r="N9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="3" t="s">
+      <c r="P9" s="21"/>
+      <c r="Q9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="R9" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="S9" s="2"/>
-      <c r="T9" s="3" t="s">
+      <c r="S9" s="31"/>
+      <c r="T9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="U9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="V9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="W9" s="3" t="s">
+      <c r="W9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="X9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Y9" s="3" t="s">
+      <c r="Y9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="Z9" s="3" t="s">
+      <c r="Z9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AA9" s="3" t="s">
+      <c r="AA9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AB9" s="3" t="s">
+      <c r="AB9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AC9" s="3" t="s">
+      <c r="AC9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AD9" s="3" t="s">
+      <c r="AD9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AE9" s="3" t="s">
+      <c r="AE9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AF9" s="3" t="s">
+      <c r="AF9" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AG9" s="3" t="s">
+      <c r="AG9" s="2" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2493,232 +2752,227 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="21"/>
+      <c r="F10" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="3" t="s">
+      <c r="O10" s="21"/>
+      <c r="P10" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="Q10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="R10" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="3" t="s">
+      <c r="S10" s="31"/>
+      <c r="T10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="U10" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="V10" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="W10" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="X10" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="Y10" s="3" t="s">
+      <c r="Y10" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="Z10" s="3" t="s">
+      <c r="Z10" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AA10" s="3" t="s">
+      <c r="AA10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AB10" s="3" t="s">
+      <c r="AB10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AC10" s="3" t="s">
+      <c r="AC10" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AD10" s="3" t="s">
+      <c r="AD10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AE10" s="3" t="s">
+      <c r="AE10" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AF10" s="3" t="s">
+      <c r="AF10" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AG10" s="3" t="s">
+      <c r="AG10" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="3" t="s">
         <v>130</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="3" t="s">
         <v>137</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="N11" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="O11" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="P11" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="Q11" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="R11" s="4" t="s">
+      <c r="R11" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="S11" s="34"/>
+      <c r="T11" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="S11" s="4"/>
-      <c r="T11" s="5" t="s">
+      <c r="U11" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="U11" s="5" t="s">
+      <c r="V11" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="V11" s="5" t="s">
+      <c r="W11" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="W11" s="5" t="s">
+      <c r="X11" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="X11" s="5" t="s">
+      <c r="Y11" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Y11" s="5" t="s">
+      <c r="Z11" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA11" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="Z11" s="5" t="s">
+      <c r="AB11" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="AA11" s="5" t="s">
+      <c r="AC11" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="AB11" s="5" t="s">
+      <c r="AD11" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AC11" s="5" t="s">
+      <c r="AE11" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="AD11" s="5" t="s">
+      <c r="AF11" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="AE11" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF11" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="AG11" s="5" t="s">
+      <c r="AG11" s="3" t="s">
         <v>114</v>
       </c>
+    </row>
+    <row r="14" spans="1:33" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N6:S6"/>
     <mergeCell ref="V6:W6"/>
@@ -2735,27 +2989,40 @@
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="U1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Appendix/有清以来诸家音韵分撮比观表.xlsx
+++ b/Appendix/有清以来诸家音韵分撮比观表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\A书籍\语言学习\汉语言\shuowen\Appendix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6048DEB-D83C-4D4A-840A-D071F5A8363B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C539FF39-AB9B-4D8A-9746-10A87A92703A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -480,10 +480,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>共三十部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第十六部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1322,6 +1318,10 @@
 2、将十二部入声字（质部）归入十五部入声字，以配阴声韵（脂部）；
 3、九部字内部也应该裂化为两部分（东、冬）；
 4、十五部入声字应裂化为三部分。即质配脂、物配微，月部独立。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共卅部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1661,15 +1661,33 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1683,24 +1701,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1986,8 +1986,8 @@
   <dimension ref="A1:AG17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N8" sqref="N8:Q8"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2023,40 +2023,40 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
       <c r="T1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
       <c r="X1" s="2" t="s">
         <v>16</v>
       </c>
@@ -2066,16 +2066,16 @@
       <c r="Z1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AA1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21" t="s">
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
       <c r="AG1" s="2" t="s">
         <v>21</v>
       </c>
@@ -2084,44 +2084,44 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21" t="s">
+      <c r="K2" s="23"/>
+      <c r="L2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="21"/>
+      <c r="M2" s="23"/>
       <c r="N2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="21"/>
+      <c r="P2" s="23"/>
       <c r="Q2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="R2" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="21"/>
+      <c r="S2" s="23"/>
       <c r="T2" s="2" t="s">
         <v>32</v>
       </c>
@@ -2143,16 +2143,16 @@
       <c r="Z2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" s="21" t="s">
+      <c r="AA2" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21" t="s">
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
       <c r="AG2" s="2" t="s">
         <v>42</v>
       </c>
@@ -2165,31 +2165,31 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>126</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>11</v>
@@ -2197,19 +2197,19 @@
       <c r="M3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="22"/>
+      <c r="O3" s="29"/>
       <c r="P3" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q3" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="22"/>
+      <c r="R3" s="29"/>
       <c r="S3" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>16</v>
@@ -2217,10 +2217,10 @@
       <c r="U3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="21" t="s">
+      <c r="V3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="21"/>
+      <c r="W3" s="23"/>
       <c r="X3" s="2" t="s">
         <v>17</v>
       </c>
@@ -2230,21 +2230,21 @@
       <c r="Z3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AA3" s="21" t="s">
+      <c r="AA3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="AB3" s="21"/>
+      <c r="AB3" s="23"/>
       <c r="AC3" s="2" t="s">
         <v>44</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG3" s="2" t="s">
         <v>45</v>
@@ -2254,77 +2254,77 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23" t="s">
+      <c r="E4" s="28"/>
+      <c r="F4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="24"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23" t="s">
+      <c r="K4" s="28"/>
+      <c r="L4" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="M4" s="30"/>
+      <c r="N4" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="M4" s="24"/>
-      <c r="N4" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
       <c r="Q4" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="27" t="s">
+      <c r="R4" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="S4" s="34"/>
+      <c r="T4" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="S4" s="28"/>
-      <c r="T4" s="7" t="s">
+      <c r="U4" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="V4" s="3" t="s">
         <v>44</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA4" s="23" t="s">
+      <c r="AA4" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23" t="s">
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23" t="s">
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="AF4" s="23"/>
+      <c r="AF4" s="28"/>
       <c r="AG4" s="3" t="s">
         <v>46</v>
       </c>
@@ -2369,10 +2369,10 @@
       <c r="M5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="29" t="s">
+      <c r="N5" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="21"/>
+      <c r="O5" s="23"/>
       <c r="P5" s="2" t="s">
         <v>58</v>
       </c>
@@ -2391,10 +2391,10 @@
       <c r="U5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="V5" s="21" t="s">
+      <c r="V5" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="W5" s="21"/>
+      <c r="W5" s="23"/>
       <c r="X5" s="2" t="s">
         <v>62</v>
       </c>
@@ -2404,10 +2404,10 @@
       <c r="Z5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AA5" s="21" t="s">
+      <c r="AA5" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="AB5" s="21"/>
+      <c r="AB5" s="23"/>
       <c r="AC5" s="2" t="s">
         <v>63</v>
       </c>
@@ -2428,48 +2428,48 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="29" t="s">
+      <c r="G6" s="26"/>
+      <c r="H6" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="32" t="s">
+      <c r="I6" s="24"/>
+      <c r="J6" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21" t="s">
+      <c r="K6" s="23"/>
+      <c r="L6" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="30"/>
-      <c r="N6" s="29" t="s">
+      <c r="M6" s="26"/>
+      <c r="N6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="31"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="24"/>
       <c r="T6" s="6" t="s">
         <v>32</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="V6" s="21" t="s">
+      <c r="V6" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="W6" s="21"/>
+      <c r="W6" s="23"/>
       <c r="X6" s="2" t="s">
         <v>36</v>
       </c>
@@ -2505,42 +2505,42 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="29" t="s">
+      <c r="G7" s="26"/>
+      <c r="H7" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="32" t="s">
+      <c r="I7" s="24"/>
+      <c r="J7" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21" t="s">
+      <c r="K7" s="23"/>
+      <c r="L7" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="29" t="s">
+      <c r="M7" s="26"/>
+      <c r="N7" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
       <c r="Q7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R7" s="21" t="s">
+      <c r="R7" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="S7" s="31"/>
+      <c r="S7" s="24"/>
       <c r="T7" s="6" t="s">
         <v>32</v>
       </c>
@@ -2562,10 +2562,10 @@
       <c r="Z7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AA7" s="21" t="s">
+      <c r="AA7" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AB7" s="21"/>
+      <c r="AB7" s="23"/>
       <c r="AC7" s="2" t="s">
         <v>40</v>
       </c>
@@ -2586,40 +2586,40 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21" t="s">
+      <c r="E8" s="23"/>
+      <c r="F8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="29" t="s">
+      <c r="G8" s="26"/>
+      <c r="H8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="32" t="s">
+      <c r="I8" s="24"/>
+      <c r="J8" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21" t="s">
+      <c r="K8" s="23"/>
+      <c r="L8" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="30"/>
-      <c r="N8" s="29" t="s">
+      <c r="M8" s="26"/>
+      <c r="N8" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21" t="s">
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="S8" s="31"/>
+      <c r="S8" s="24"/>
       <c r="T8" s="6" t="s">
         <v>32</v>
       </c>
@@ -2667,44 +2667,44 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21" t="s">
+      <c r="E9" s="23"/>
+      <c r="F9" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="29" t="s">
+      <c r="G9" s="26"/>
+      <c r="H9" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="32" t="s">
+      <c r="I9" s="24"/>
+      <c r="J9" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21" t="s">
+      <c r="K9" s="23"/>
+      <c r="L9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="30"/>
+      <c r="M9" s="26"/>
       <c r="N9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="21" t="s">
+      <c r="O9" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="P9" s="21"/>
+      <c r="P9" s="23"/>
       <c r="Q9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="21" t="s">
+      <c r="R9" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="S9" s="31"/>
+      <c r="S9" s="24"/>
       <c r="T9" s="6" t="s">
         <v>32</v>
       </c>
@@ -2758,10 +2758,10 @@
       <c r="C10" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="21"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="2" t="s">
         <v>96</v>
       </c>
@@ -2786,20 +2786,20 @@
       <c r="M10" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="N10" s="29" t="s">
+      <c r="N10" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="O10" s="21"/>
+      <c r="O10" s="23"/>
       <c r="P10" s="2" t="s">
         <v>103</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="R10" s="21" t="s">
+      <c r="R10" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="S10" s="31"/>
+      <c r="S10" s="24"/>
       <c r="T10" s="6" t="s">
         <v>32</v>
       </c>
@@ -2848,103 +2848,103 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="G11" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="P11" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="R11" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="S11" s="22"/>
+      <c r="T11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z11" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="N11" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="O11" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="P11" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="R11" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="S11" s="34"/>
-      <c r="T11" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y11" s="3" t="s">
+      <c r="AA11" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Z11" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA11" s="3" t="s">
+      <c r="AB11" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="AB11" s="3" t="s">
+      <c r="AC11" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="AC11" s="3" t="s">
+      <c r="AD11" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="AD11" s="3" t="s">
+      <c r="AE11" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AE11" s="3" t="s">
+      <c r="AF11" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="AF11" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="AG11" s="3" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
@@ -2952,27 +2952,40 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N6:S6"/>
     <mergeCell ref="V6:W6"/>
@@ -2989,40 +3002,27 @@
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="L9:M9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
